--- a/doc/Mechanics.xlsx
+++ b/doc/Mechanics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B265008-35C4-48A5-AB50-57E7F824A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1ED76-919B-4736-930F-029D0E518B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3157" yWindow="1290" windowWidth="15826" windowHeight="11333" xr2:uid="{179AA141-B4E0-45BD-BB0D-72F4C1F29321}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{179AA141-B4E0-45BD-BB0D-72F4C1F29321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,12 +716,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -738,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,6 +752,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,8 +1077,8 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1097,7 +1109,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1509,10 +1521,10 @@
       <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1521,8 +1533,8 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -1534,7 +1546,7 @@
       <c r="B46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1564,7 +1576,7 @@
       <c r="B49" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -1862,7 +1874,7 @@
       <c r="B78" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2007,30 +2019,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A58:A94"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B35:C35"/>
@@ -2043,14 +2039,30 @@
     <mergeCell ref="A18:A40"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A58:A94"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Mechanics.xlsx
+++ b/doc/Mechanics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1ED76-919B-4736-930F-029D0E518B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1FA461-EEBF-4915-8E69-A11B90154CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{179AA141-B4E0-45BD-BB0D-72F4C1F29321}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路径分歧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,9 +157,6 @@
   </si>
   <si>
     <t>索敌</t>
-  </si>
-  <si>
-    <t>索敌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,10 +510,6 @@
     <t>改修資材</t>
   </si>
   <si>
-    <t>螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每个装备有自己的理想化形态（通常是另一个装备）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,55 +632,56 @@
     <t>戦闘糧食</t>
   </si>
   <si>
+    <t>設営隊</t>
+  </si>
+  <si>
+    <t>任务奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艦補給物資</t>
+  </si>
+  <si>
+    <t>远征奖励，1潜母6潜游击舰队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戦闘詳報</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新型砲熕兵装資材</t>
+  </si>
+  <si>
+    <t>新型航空兵装資材</t>
+  </si>
+  <si>
+    <t>新型噴進装備開発資材</t>
+  </si>
+  <si>
+    <t>戦闘糧食(特別なおにぎり)</t>
+  </si>
+  <si>
+    <t>緊急修理資材</t>
+  </si>
+  <si>
+    <t>新型兵装資材</t>
+  </si>
+  <si>
+    <t>海色リボン</t>
+  </si>
+  <si>
+    <t>白たすき</t>
+  </si>
+  <si>
+    <t>远征奖励，本游可修大破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>洋上補給</t>
-  </si>
-  <si>
-    <t>設営隊</t>
-  </si>
-  <si>
-    <t>任务奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜水艦補給物資</t>
-  </si>
-  <si>
-    <t>远征奖励，1潜母6潜游击舰队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戦闘詳報</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新型砲熕兵装資材</t>
-  </si>
-  <si>
-    <t>新型航空兵装資材</t>
-  </si>
-  <si>
-    <t>新型噴進装備開発資材</t>
-  </si>
-  <si>
-    <t>戦闘糧食(特別なおにぎり)</t>
-  </si>
-  <si>
-    <t>緊急修理資材</t>
-  </si>
-  <si>
-    <t>新型兵装資材</t>
-  </si>
-  <si>
-    <t>海色リボン</t>
-  </si>
-  <si>
-    <t>白たすき</t>
-  </si>
-  <si>
-    <t>远征奖励，本游可修大破</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,11 +734,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,7 +750,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,8 +1073,8 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87:C91"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1091,50 +1087,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -1143,25 +1139,25 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1169,10 +1165,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,33 +1177,33 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1215,818 +1211,830 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="C36" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="C36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
+      <c r="C40" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="3"/>
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="3"/>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="3"/>
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="1" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="3"/>
+      <c r="B63" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="3"/>
+      <c r="B64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C64" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="1" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="1" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="3"/>
+      <c r="B73" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="3"/>
+      <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="3"/>
+      <c r="B77" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="1" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="2"/>
-      <c r="B77" s="1" t="s">
+      <c r="C78" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="3"/>
+      <c r="B79" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="2"/>
-      <c r="B78" s="1" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="3"/>
+      <c r="B90" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2" t="s">
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="3"/>
+      <c r="B91" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="3"/>
+      <c r="B93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="3"/>
+      <c r="B94" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="2"/>
-      <c r="B86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="2"/>
-      <c r="B87" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="2"/>
-      <c r="B88" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A58:A94"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B35:C35"/>
@@ -2042,27 +2050,15 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A58:A94"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
